--- a/src/web/movie/演員.xlsx
+++ b/src/web/movie/演員.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\Spotiflix\SPOTIFLIX\src\web\movie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDBBFCD9-815B-4A5C-B2C3-7D31D357FEFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC1ED9B-074C-4A5A-8A93-2BF1D67463A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B99C182C-AAC8-45D3-860A-E5A35624E733}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>actor_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>希斯·萊傑</t>
+  </si>
+  <si>
+    <t>瑪格羅比</t>
+  </si>
+  <si>
+    <t>妮可基嫚</t>
   </si>
 </sst>
 </file>
@@ -634,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A431DBE3-D1CA-4F71-BB1E-178FB16F5CAA}">
   <dimension ref="B1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="17"/>
@@ -701,7 +707,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -709,7 +715,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -891,5 +897,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>